--- a/REGULAR/ASSESSOR/ANACAY, ABNER.xlsx
+++ b/REGULAR/ASSESSOR/ANACAY, ABNER.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="455">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1383,6 +1383,21 @@
   </si>
   <si>
     <t>ANNIV. 8/31/2023</t>
+  </si>
+  <si>
+    <t>9/18-22,25-29 , 10/2-6, 9-13/2023</t>
+  </si>
+  <si>
+    <t>12/26,27/2023</t>
+  </si>
+  <si>
+    <t>12/18-22/2023</t>
+  </si>
+  <si>
+    <t>11/16,17,20-24,28-30, 12/1,4-7,11-15/2023</t>
+  </si>
+  <si>
+    <t>10/16-20,23-27,31, 11/3, 6-10,13-15/2023</t>
   </si>
 </sst>
 </file>
@@ -2079,8 +2094,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K692" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K692"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K696" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K696"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2409,12 +2424,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K692"/>
+  <dimension ref="A2:K696"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A625" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A628" activePane="bottomLeft"/>
       <selection activeCell="H17" sqref="H17"/>
-      <selection pane="bottomLeft" activeCell="K644" sqref="K644"/>
+      <selection pane="bottomLeft" activeCell="H656" sqref="H656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2580,7 +2595,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>70.819000000000074</v>
+        <v>67.569000000000074</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2590,7 +2605,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>137.30000000000001</v>
+        <v>81.05</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16838,13 +16853,15 @@
       <c r="B644" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C644" s="13"/>
+      <c r="C644" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D644" s="38"/>
       <c r="E644" s="9"/>
       <c r="F644" s="20"/>
-      <c r="G644" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G644" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H644" s="38"/>
       <c r="I644" s="9"/>
@@ -16855,7 +16872,9 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="39"/>
-      <c r="B645" s="20"/>
+      <c r="B645" s="20" t="s">
+        <v>445</v>
+      </c>
       <c r="C645" s="13"/>
       <c r="D645" s="38"/>
       <c r="E645" s="9"/>
@@ -16864,21 +16883,29 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H645" s="38"/>
+      <c r="H645" s="38">
+        <v>20</v>
+      </c>
       <c r="I645" s="9"/>
       <c r="J645" s="11"/>
-      <c r="K645" s="20"/>
+      <c r="K645" s="20" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A646" s="39"/>
+      <c r="A646" s="39">
+        <v>45200</v>
+      </c>
       <c r="B646" s="20"/>
-      <c r="C646" s="13"/>
+      <c r="C646" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D646" s="38"/>
       <c r="E646" s="9"/>
       <c r="F646" s="20"/>
-      <c r="G646" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G646" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H646" s="38"/>
       <c r="I646" s="9"/>
@@ -16886,26 +16913,40 @@
       <c r="K646" s="20"/>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A647" s="39"/>
-      <c r="B647" s="20"/>
-      <c r="C647" s="13"/>
-      <c r="D647" s="38"/>
+      <c r="A647" s="39">
+        <v>45231</v>
+      </c>
+      <c r="B647" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C647" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D647" s="38">
+        <v>2</v>
+      </c>
       <c r="E647" s="9"/>
       <c r="F647" s="20"/>
-      <c r="G647" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G647" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H647" s="38"/>
       <c r="I647" s="9"/>
       <c r="J647" s="11"/>
-      <c r="K647" s="20"/>
+      <c r="K647" s="20" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="39"/>
-      <c r="B648" s="20"/>
+      <c r="B648" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C648" s="13"/>
-      <c r="D648" s="38"/>
+      <c r="D648" s="38">
+        <v>5</v>
+      </c>
       <c r="E648" s="9"/>
       <c r="F648" s="20"/>
       <c r="G648" s="13" t="str">
@@ -16915,11 +16956,15 @@
       <c r="H648" s="38"/>
       <c r="I648" s="9"/>
       <c r="J648" s="11"/>
-      <c r="K648" s="20"/>
+      <c r="K648" s="20" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="39"/>
-      <c r="B649" s="20"/>
+      <c r="B649" s="20" t="s">
+        <v>445</v>
+      </c>
       <c r="C649" s="13"/>
       <c r="D649" s="38"/>
       <c r="E649" s="9"/>
@@ -16928,14 +16973,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H649" s="38"/>
+      <c r="H649" s="38">
+        <v>20</v>
+      </c>
       <c r="I649" s="9"/>
       <c r="J649" s="11"/>
-      <c r="K649" s="20"/>
+      <c r="K649" s="20" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="39"/>
-      <c r="B650" s="20"/>
+      <c r="B650" s="20" t="s">
+        <v>445</v>
+      </c>
       <c r="C650" s="13"/>
       <c r="D650" s="38"/>
       <c r="E650" s="9"/>
@@ -16944,13 +16995,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H650" s="38"/>
+      <c r="H650" s="38">
+        <v>20</v>
+      </c>
       <c r="I650" s="9"/>
       <c r="J650" s="11"/>
-      <c r="K650" s="20"/>
+      <c r="K650" s="20" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A651" s="39"/>
+      <c r="A651" s="39">
+        <v>45261</v>
+      </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
       <c r="D651" s="38"/>
@@ -17606,20 +17663,84 @@
       <c r="K691" s="20"/>
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A692" s="40"/>
-      <c r="B692" s="15"/>
-      <c r="C692" s="41"/>
-      <c r="D692" s="42"/>
+      <c r="A692" s="39"/>
+      <c r="B692" s="20"/>
+      <c r="C692" s="13"/>
+      <c r="D692" s="38"/>
       <c r="E692" s="9"/>
-      <c r="F692" s="15"/>
-      <c r="G692" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H692" s="42"/>
+      <c r="F692" s="20"/>
+      <c r="G692" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H692" s="38"/>
       <c r="I692" s="9"/>
-      <c r="J692" s="12"/>
-      <c r="K692" s="15"/>
+      <c r="J692" s="11"/>
+      <c r="K692" s="20"/>
+    </row>
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A693" s="39"/>
+      <c r="B693" s="20"/>
+      <c r="C693" s="13"/>
+      <c r="D693" s="38"/>
+      <c r="E693" s="9"/>
+      <c r="F693" s="20"/>
+      <c r="G693" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H693" s="38"/>
+      <c r="I693" s="9"/>
+      <c r="J693" s="11"/>
+      <c r="K693" s="20"/>
+    </row>
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A694" s="39"/>
+      <c r="B694" s="20"/>
+      <c r="C694" s="13"/>
+      <c r="D694" s="38"/>
+      <c r="E694" s="9"/>
+      <c r="F694" s="20"/>
+      <c r="G694" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H694" s="38"/>
+      <c r="I694" s="9"/>
+      <c r="J694" s="11"/>
+      <c r="K694" s="20"/>
+    </row>
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A695" s="39"/>
+      <c r="B695" s="20"/>
+      <c r="C695" s="13"/>
+      <c r="D695" s="38"/>
+      <c r="E695" s="9"/>
+      <c r="F695" s="20"/>
+      <c r="G695" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H695" s="38"/>
+      <c r="I695" s="9"/>
+      <c r="J695" s="11"/>
+      <c r="K695" s="20"/>
+    </row>
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A696" s="40"/>
+      <c r="B696" s="15"/>
+      <c r="C696" s="41"/>
+      <c r="D696" s="42"/>
+      <c r="E696" s="9"/>
+      <c r="F696" s="15"/>
+      <c r="G696" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H696" s="42"/>
+      <c r="I696" s="9"/>
+      <c r="J696" s="12"/>
+      <c r="K696" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17792,7 +17913,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>208.11900000000009</v>
+        <v>148.61900000000009</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
